--- a/backend/debug/export.xlsx
+++ b/backend/debug/export.xlsx
@@ -7,21 +7,20 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1" state="visible"/>
-    <sheet name="Test Table" sheetId="2" r:id="rId2"/>
+    <sheet name="test.csv" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Field 1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Field 2</t>
+    <t xml:space="preserve"> Field 2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -29,19 +28,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t xml:space="preserve"> 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>c2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Field (1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Field</t>
+    <t xml:space="preserve"> 2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>c3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -49,16 +56,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -67,7 +70,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -79,20 +82,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="1" applyAlignment="1"/>
-  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="1" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -103,56 +96,116 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -300,61 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s" s="1">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B6"/>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="8.38" customWidth="1"/>
@@ -362,90 +361,50 @@
   <sheetData>
     <row r="0" spans="1:2">
       <c r="A0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B0" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="4" spans="1:2">
-      <c r="A4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>123</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>321</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
